--- a/data/extracted_data/raw_round2/data/Taleb_etal_2001_Fig2b+3.xlsx
+++ b/data/extracted_data/raw_round2/data/Taleb_etal_2001_Fig2b+3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{19E1E33C-5626-B243-A424-D7AD52EF88DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0399A729-00DF-334E-8ACF-1E8673659DBE}"/>
@@ -149,10 +149,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD8DCA7-378B-A749-8465-94CDA0FE21DE}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:D114"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
